--- a/INDUCTORS.xlsx
+++ b/INDUCTORS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\AtomParts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\Github\AtomParts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -35,9 +35,6 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
@@ -45,6 +42,321 @@
   </si>
   <si>
     <t>Inductance</t>
+  </si>
+  <si>
+    <t>MDMK3030T1R0MM</t>
+  </si>
+  <si>
+    <t>MDMK</t>
+  </si>
+  <si>
+    <t>1 UH</t>
+  </si>
+  <si>
+    <t>3.1 A</t>
+  </si>
+  <si>
+    <t>3x3 MM</t>
+  </si>
+  <si>
+    <t>OTHER INFO</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>BLM18PG471SN1D</t>
+  </si>
+  <si>
+    <t>FERRITE</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>LPS3015</t>
+  </si>
+  <si>
+    <t>2.2 UH</t>
+  </si>
+  <si>
+    <t>1.4 A</t>
+  </si>
+  <si>
+    <t>1 A</t>
+  </si>
+  <si>
+    <t>LPS3015-222MLB</t>
+  </si>
+  <si>
+    <t>3.15 x 3.15 MM</t>
+  </si>
+  <si>
+    <t>GLFR</t>
+  </si>
+  <si>
+    <t>GLFR1608T6R8M-LR</t>
+  </si>
+  <si>
+    <t>6.8 UH</t>
+  </si>
+  <si>
+    <t>MLZ2012M470W</t>
+  </si>
+  <si>
+    <t>47 UH</t>
+  </si>
+  <si>
+    <t>0.4 A</t>
+  </si>
+  <si>
+    <t>0.17 A</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>ASMPH-0603-1R5M-T</t>
+  </si>
+  <si>
+    <t>ASMPH</t>
+  </si>
+  <si>
+    <t>1.5 UH</t>
+  </si>
+  <si>
+    <t>0.9 A</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>BLM21PG300SN1D</t>
+  </si>
+  <si>
+    <t>BLM21</t>
+  </si>
+  <si>
+    <t>4 A</t>
+  </si>
+  <si>
+    <t>470 OHM IMPEDANCE</t>
+  </si>
+  <si>
+    <t>30 OHMS IMPEDANCE</t>
+  </si>
+  <si>
+    <t>ILHB0603ER121V</t>
+  </si>
+  <si>
+    <t>ILHB</t>
+  </si>
+  <si>
+    <t>2 A</t>
+  </si>
+  <si>
+    <t>120 OMHS IMPEDANCE</t>
+  </si>
+  <si>
+    <t>BRL1608T100M</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>10 UH</t>
+  </si>
+  <si>
+    <t>0.22 A</t>
+  </si>
+  <si>
+    <t>SRN2512</t>
+  </si>
+  <si>
+    <t>SRN2512-R47M</t>
+  </si>
+  <si>
+    <t>470 NH</t>
+  </si>
+  <si>
+    <t>4.4 A</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>BKP2125HS331-T</t>
+  </si>
+  <si>
+    <t>BKP</t>
+  </si>
+  <si>
+    <t>1.5 A</t>
+  </si>
+  <si>
+    <t>330 OHMS IMPEDANCE</t>
+  </si>
+  <si>
+    <t>NRS4018T100MDGJ</t>
+  </si>
+  <si>
+    <t>NRS</t>
+  </si>
+  <si>
+    <t>1.2 A</t>
+  </si>
+  <si>
+    <t>4018</t>
+  </si>
+  <si>
+    <t>84103C</t>
+  </si>
+  <si>
+    <t>0.95 A</t>
+  </si>
+  <si>
+    <t>4.5 x 3.3 MM</t>
+  </si>
+  <si>
+    <t>CVH252009-R47M</t>
+  </si>
+  <si>
+    <t>CVH252009</t>
+  </si>
+  <si>
+    <t>1.8 A</t>
+  </si>
+  <si>
+    <t>LPS3015-153MLB</t>
+  </si>
+  <si>
+    <t>15 UH</t>
+  </si>
+  <si>
+    <t>0.59 A</t>
+  </si>
+  <si>
+    <t>NR8040T220M</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>22 UH</t>
+  </si>
+  <si>
+    <t>2.2 A</t>
+  </si>
+  <si>
+    <t>8 x 8 MM</t>
+  </si>
+  <si>
+    <t>LQH32CN470K23L</t>
+  </si>
+  <si>
+    <t>LQH32</t>
+  </si>
+  <si>
+    <t>0.1 A</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>LPS3015-473MLB</t>
+  </si>
+  <si>
+    <t>100 UH</t>
+  </si>
+  <si>
+    <t>0.26 A</t>
+  </si>
+  <si>
+    <t>LPS3015-104MLB</t>
+  </si>
+  <si>
+    <t>LPS3015-103MLB</t>
+  </si>
+  <si>
+    <t>0.75 A</t>
+  </si>
+  <si>
+    <t>4.7 UH</t>
+  </si>
+  <si>
+    <t>LPS3015-472MLB</t>
+  </si>
+  <si>
+    <t>LQH2MCN220K02L</t>
+  </si>
+  <si>
+    <t>LQH2M</t>
+  </si>
+  <si>
+    <t>0.185 A</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>SDR0604-220YL</t>
+  </si>
+  <si>
+    <t>SDR</t>
+  </si>
+  <si>
+    <t>1.1 A</t>
+  </si>
+  <si>
+    <t>5.8 MM ROUND</t>
+  </si>
+  <si>
+    <t>SRN</t>
+  </si>
+  <si>
+    <t>SRN4018-2R2M</t>
+  </si>
+  <si>
+    <t>2.9 A</t>
+  </si>
+  <si>
+    <t>4 x 4 MM</t>
+  </si>
+  <si>
+    <t>ASPI-0315S-4R7M-T</t>
+  </si>
+  <si>
+    <t>ASPI</t>
+  </si>
+  <si>
+    <t>3.8 x 3.8 MM</t>
+  </si>
+  <si>
+    <t>ASPI-0602S-3R0M-T</t>
+  </si>
+  <si>
+    <t>3 UH</t>
+  </si>
+  <si>
+    <t>3 A</t>
+  </si>
+  <si>
+    <t>6.7 x6.7 MM</t>
+  </si>
+  <si>
+    <t>MLZ2012M220WT</t>
+  </si>
+  <si>
+    <t>MLZ2012</t>
+  </si>
+  <si>
+    <t>SDR0604-270YL</t>
+  </si>
+  <si>
+    <t>27 UH</t>
+  </si>
+  <si>
+    <t>5.8 x 5.8 MM</t>
   </si>
 </sst>
 </file>
@@ -139,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,21 +478,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -232,62 +602,7 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -360,16 +675,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
   <autoFilter ref="A1:G47"/>
   <sortState ref="A2:G47">
-    <sortCondition ref="B1:B47"/>
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" name="Inductance" dataDxfId="5"/>
-    <tableColumn id="7" name="Current" dataDxfId="4"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="3"/>
-    <tableColumn id="4" name="QTY" dataDxfId="2"/>
-    <tableColumn id="5" name="Package" dataDxfId="1"/>
-    <tableColumn id="6" name="Type" dataDxfId="0"/>
+    <tableColumn id="2" name="Inductance" dataDxfId="0"/>
+    <tableColumn id="7" name="Current" dataDxfId="1"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="5"/>
+    <tableColumn id="4" name="QTY" dataDxfId="4"/>
+    <tableColumn id="5" name="Package" dataDxfId="2"/>
+    <tableColumn id="6" name="OTHER INFO" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,17 +955,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18" style="15" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -658,11 +975,11 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -670,278 +987,767 @@
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="8"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="8"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="8"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="8"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="8"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="8"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="D27" s="10"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="8"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="8"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="8"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
+      <c r="B32" s="14"/>
       <c r="D32" s="8"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="14"/>
       <c r="D33" s="11"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="14"/>
       <c r="D36" s="11"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39" s="9"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="11"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="14"/>
       <c r="D41" s="11"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="14"/>
       <c r="D42" s="11"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="8"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="14"/>
       <c r="D44" s="11"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" s="8"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="14"/>
       <c r="D46" s="11"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="14"/>
       <c r="D47" s="11"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="6"/>
     </row>
   </sheetData>

--- a/INDUCTORS.xlsx
+++ b/INDUCTORS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -357,6 +357,21 @@
   </si>
   <si>
     <t>5.8 x 5.8 MM</t>
+  </si>
+  <si>
+    <t>1.6 NH</t>
+  </si>
+  <si>
+    <t>1.6nH Unshielded Multilayer Inductor 1A 70mOhm Max 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>LQG15HZ1N6C02D</t>
+  </si>
+  <si>
+    <t>LQG15HZ</t>
   </si>
 </sst>
 </file>
@@ -510,8 +525,61 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -550,59 +618,6 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -679,12 +694,12 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" name="Inductance" dataDxfId="0"/>
-    <tableColumn id="7" name="Current" dataDxfId="1"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="5"/>
-    <tableColumn id="4" name="QTY" dataDxfId="4"/>
-    <tableColumn id="5" name="Package" dataDxfId="2"/>
-    <tableColumn id="6" name="OTHER INFO" dataDxfId="3"/>
+    <tableColumn id="2" name="Inductance" dataDxfId="5"/>
+    <tableColumn id="7" name="Current" dataDxfId="4"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="3"/>
+    <tableColumn id="4" name="QTY" dataDxfId="2"/>
+    <tableColumn id="5" name="Package" dataDxfId="1"/>
+    <tableColumn id="6" name="OTHER INFO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,7 +971,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1639,8 +1654,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="8"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>

--- a/INDUCTORS.xlsx
+++ b/INDUCTORS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>LQG15HZ</t>
+  </si>
+  <si>
+    <t>4.1 A</t>
+  </si>
+  <si>
+    <t>BUY THIS</t>
+  </si>
+  <si>
+    <t>NRS8040T4R7NJGJ</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
   <autoFilter ref="A1:G47"/>
   <sortState ref="A2:G47">
-    <sortCondition ref="A1:A47"/>
+    <sortCondition ref="B1:B47"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
@@ -970,13 +979,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
@@ -1011,22 +1020,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="7">
         <v>3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>34</v>
@@ -1057,45 +1066,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>100</v>
+      <c r="A5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>102</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>34</v>
@@ -1103,91 +1112,91 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3">
+        <v>82</v>
+      </c>
+      <c r="E9" s="7">
         <v>10</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -1195,22 +1204,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="7">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -1218,22 +1227,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -1241,45 +1250,45 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
+      <c r="A13" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="E13" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>34</v>
@@ -1287,22 +1296,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="7">
+        <v>106</v>
+      </c>
+      <c r="E14" s="3">
         <v>10</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>34</v>
@@ -1310,22 +1319,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>34</v>
@@ -1333,22 +1342,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="7">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>34</v>
@@ -1356,68 +1365,68 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="7">
-        <v>7</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="C19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>34</v>
@@ -1425,22 +1434,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>34</v>
@@ -1448,22 +1457,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="7">
-        <v>3</v>
-      </c>
       <c r="F21" s="13" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>34</v>
@@ -1494,22 +1503,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="E23" s="7">
+        <v>7</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>34</v>
@@ -1517,22 +1526,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="E24" s="7">
+        <v>8</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>34</v>
@@ -1540,22 +1549,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3">
         <v>10</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>34</v>
@@ -1563,22 +1572,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>34</v>
@@ -1586,99 +1595,118 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E28" s="3">
         <v>10</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="E29" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
